--- a/Tab vs Mappers vs LGA.xlsx
+++ b/Tab vs Mappers vs LGA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hameed\Dropbox\repo\LVASA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CCTRIS ADMIN\Desktop\R tempfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BFA9C6-1238-46D4-B23F-4E6B3CE21D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B8E7C0-219C-49B5-B1BA-490CED2FEDBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A129C0FF-3103-4BF8-B25E-D252316E045E}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8743" xr2:uid="{A129C0FF-3103-4BF8-B25E-D252316E045E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="79">
   <si>
     <t>lga_name</t>
   </si>
@@ -270,13 +268,16 @@
   </si>
   <si>
     <t>tab15</t>
+  </si>
+  <si>
+    <t>Crossover</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,7 +286,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,6 +296,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,9 +318,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,22 +656,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4261EB-A448-4ACB-86E2-E2CD0C2A7BD3}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.15"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.35546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.2109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -679,8 +687,11 @@
       <c r="E1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -693,8 +704,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -708,11 +722,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
@@ -721,12 +735,15 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C5" t="s">
@@ -739,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -752,8 +769,11 @@
       <c r="D6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -766,8 +786,17 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -781,7 +810,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -795,7 +824,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -809,7 +838,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -823,7 +852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -837,7 +866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -851,7 +880,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -865,7 +894,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -879,7 +908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -893,7 +922,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>65</v>
       </c>
@@ -907,7 +936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -915,7 +944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -923,7 +952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>74</v>
       </c>
@@ -931,7 +960,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>76</v>
       </c>
